--- a/medicine/Maladies infectieuses/Coronalert/Coronalert.xlsx
+++ b/medicine/Maladies infectieuses/Coronalert/Coronalert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coronalert est une application mobile de suivi des contacts utilisée en Belgique dans le cadre de la pandémie de Covid-19. Elle est distribuée par Sciensano, l'institut national de la santé en Belgique.
 </t>
@@ -511,11 +523,13 @@
           <t>Historique et développement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'application Coronalert a été développée par les entreprises belges DevSide et Ixor[1] sous la direction d'Axel Legay et Bart Preneel. Elle est fortement basée sur l'application allemande Corona-Warn-App (de) dont elle reprend aussi le design.
-Après plusieurs semaines de test[2], elle a été rendue disponible au public le 7 octobre 2020[3].
-Une fonctionnalité permettant de recevoir le résultat d'un test de dépistage Covid directement dans l'application a été ajoutée le 19 novembre 2020[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'application Coronalert a été développée par les entreprises belges DevSide et Ixor sous la direction d'Axel Legay et Bart Preneel. Elle est fortement basée sur l'application allemande Corona-Warn-App (de) dont elle reprend aussi le design.
+Après plusieurs semaines de test, elle a été rendue disponible au public le 7 octobre 2020.
+Une fonctionnalité permettant de recevoir le résultat d'un test de dépistage Covid directement dans l'application a été ajoutée le 19 novembre 2020.
 L'interopérabilité avec la passerelle européenne d'interconnexion a été activée le 6 janvier 2021.
 </t>
         </is>
@@ -545,10 +559,12 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Coronalert utilise la technologie Exposure NotificationExposure Notification développée conjointement par Google et Apple pour être intégrée dans leurs systèmes d'exploitation respectifs, Android et iOS. Celle-ci est inspirée des protocoles décentralisés DP3-T et TCN, et se base sur les signaux à courte portée Bluetooth à basse consommation (BLE) pour identifier les autres appareils à proximité sur lesquels la technologie est installée et activée. 
-Lorsqu'une personne utilisant l'application est testée positive au Covid-19, un code anonyme[5] permet aux autres utilisateurs de l'application qu'elle aurait croisés d'en être notifiés, ce qui pourrait être le signe d'une exposition prolongée au virus. 
+Lorsqu'une personne utilisant l'application est testée positive au Covid-19, un code anonyme permet aux autres utilisateurs de l'application qu'elle aurait croisés d'en être notifiés, ce qui pourrait être le signe d'une exposition prolongée au virus. 
 </t>
         </is>
       </c>
@@ -577,11 +593,13 @@
           <t>Interopérabilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Grâce à sa base Corona-Warn-App, Coronalert est directement compatible avec la plateforme mise en place par la Commission européenne via la passerelle européenne d'interconnexion (European Federation Gateway Service). Elle est donc utilisable depuis le 6 janvier 2021 dans tous les autres pays connectés avec cette plateforme et peut échanger des données avec les applications similaires de ces pays.
-Au 6 janvier 2021, cette liste s'étendait aux applications de l'Allemagne, des Pays-Bas, de l’Espagne, de l’Irlande, de l’Italie, du Danemark, de la Lettonie, de la Croatie, de la Pologne et de Chypre. Au total, les applications de 20 pays peuvent être interopérables[6].
-L'application française TousAntiCovid utilise un protocole centralisé est n'est donc pas compatible avec cette plateforme[7].
+Au 6 janvier 2021, cette liste s'étendait aux applications de l'Allemagne, des Pays-Bas, de l’Espagne, de l’Irlande, de l’Italie, du Danemark, de la Lettonie, de la Croatie, de la Pologne et de Chypre. Au total, les applications de 20 pays peuvent être interopérables.
+L'application française TousAntiCovid utilise un protocole centralisé est n'est donc pas compatible avec cette plateforme.
 </t>
         </is>
       </c>
@@ -610,10 +628,12 @@
           <t>Analyse et critiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'application souffre des mêmes problèmes d'efficacité que les autres applications de suivi des contacts, à savoir la possibilité de faux positifs et le manque d'efficacité si l'application n'est utilisée que par une petite fraction de la population[8]. Elle a été téléchargé 2,4 millions de fois, soit environ 20% de la population belge. Elle était inutilisable pour la plupart des téléphones ayant plus de 5 ans[9], mais à partir de la version 1.6.0, elle est compatible avec les iPhone 6 (2014).
-Grâce à son mode de développement ouvert, il est possible de vérifier qu'elle ne pose pas de problèmes importants en matière de sécurité et de vie privée[10].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'application souffre des mêmes problèmes d'efficacité que les autres applications de suivi des contacts, à savoir la possibilité de faux positifs et le manque d'efficacité si l'application n'est utilisée que par une petite fraction de la population. Elle a été téléchargé 2,4 millions de fois, soit environ 20% de la population belge. Elle était inutilisable pour la plupart des téléphones ayant plus de 5 ans, mais à partir de la version 1.6.0, elle est compatible avec les iPhone 6 (2014).
+Grâce à son mode de développement ouvert, il est possible de vérifier qu'elle ne pose pas de problèmes importants en matière de sécurité et de vie privée.
 </t>
         </is>
       </c>
